--- a/medicine/Enfance/Gouden_Griffel/Gouden_Griffel.xlsx
+++ b/medicine/Enfance/Gouden_Griffel/Gouden_Griffel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gouden Griffel est un prix de littérature d'enfance et de jeunesse néerlandais. En 2009, un lauréat percevait 1361,34 €[1].
-Depuis 1971, il est décerné chaque année lors de la Kinderboekenweek (nl) (Semaine du livre de jeunesse)[2] par la Stichting Collectieve Propaganda van het Nederlandse Boek (nl) aux meilleurs livres de jeunesse de l'année précédente : entre 1954 et 1970, il était seulement décerné à un ouvrage, Kinderboek van het jaar (nl) (Livre de jeunesse de l'année). Depuis, plusieurs prix sont attribués dans différentes catégories à plusieurs auteurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gouden Griffel est un prix de littérature d'enfance et de jeunesse néerlandais. En 2009, un lauréat percevait 1361,34 €.
+Depuis 1971, il est décerné chaque année lors de la Kinderboekenweek (nl) (Semaine du livre de jeunesse) par la Stichting Collectieve Propaganda van het Nederlandse Boek (nl) aux meilleurs livres de jeunesse de l'année précédente : entre 1954 et 1970, il était seulement décerné à un ouvrage, Kinderboek van het jaar (nl) (Livre de jeunesse de l'année). Depuis, plusieurs prix sont attribués dans différentes catégories à plusieurs auteurs.
 Le Gouden Griffel récompense une œuvre écrite en néerlandais. Le Zilveren Griffel (nl) peut concerner une traduction tandis que le Gouden Penseel (nl) et le Zilveren Penseel (nl) s'adressent à des ouvrages illustrés. Et depuis 1997, le Gouden Zoen (nl) et le Zilveren Zoen (nl) distinguent des livres conçus pour des enfants de plus de 12 ans.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Lauréats[3]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1971 - Alet Schouten, De mare van de witte toren
 1971 - Leonie Kooiker, Het malle ding van bobbistiek
